--- a/Data_Dict.xlsx
+++ b/Data_Dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\sql-datawarehouse-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737493DA-02D1-4B40-9220-3B2FDE8A4CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34DBABF-F6EF-427A-8540-6B8FB7662A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table Lists" sheetId="1" r:id="rId1"/>
@@ -21,17 +21,26 @@
     <sheet name="LOC_A101" sheetId="6" r:id="rId6"/>
     <sheet name="PX_CAT_G1V2" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="100">
   <si>
     <t>No</t>
   </si>
@@ -76,13 +85,268 @@
   </si>
   <si>
     <t>Click here to go back to Table List</t>
+  </si>
+  <si>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>cst_id</t>
+  </si>
+  <si>
+    <t>cst_key</t>
+  </si>
+  <si>
+    <t>cst_firstname</t>
+  </si>
+  <si>
+    <t>cst_lastname</t>
+  </si>
+  <si>
+    <t>cst_marital_status</t>
+  </si>
+  <si>
+    <t>cst_gndr</t>
+  </si>
+  <si>
+    <t>cst_create_date</t>
+  </si>
+  <si>
+    <t>BIGINT</t>
+  </si>
+  <si>
+    <t>Customer ID</t>
+  </si>
+  <si>
+    <t>Unique key(s) are highlighted in red color.</t>
+  </si>
+  <si>
+    <t>Customer key</t>
+  </si>
+  <si>
+    <t>First name of customer</t>
+  </si>
+  <si>
+    <t>Last name of customer</t>
+  </si>
+  <si>
+    <t>Marital status (S. Single, M: Married)</t>
+  </si>
+  <si>
+    <t>Gender (M: Male, F: Female, NULL: not to disclose)</t>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+  </si>
+  <si>
+    <t>NVARCHAR(40)</t>
+  </si>
+  <si>
+    <t>VARCHAR(2)</t>
+  </si>
+  <si>
+    <t>Nullable</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>Click Here</t>
+  </si>
+  <si>
+    <t>Create date of record</t>
+  </si>
+  <si>
+    <t>prd_id</t>
+  </si>
+  <si>
+    <t>prd_key</t>
+  </si>
+  <si>
+    <t>prd_nm</t>
+  </si>
+  <si>
+    <t>prd_cost</t>
+  </si>
+  <si>
+    <t>prd_line</t>
+  </si>
+  <si>
+    <t>prd_start_dt</t>
+  </si>
+  <si>
+    <t>prd_end_dt</t>
+  </si>
+  <si>
+    <t>VARCHAR(200)</t>
+  </si>
+  <si>
+    <t>NVARCHAR(200)</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
+    <t>VARCHAR(4)</t>
+  </si>
+  <si>
+    <t>Production start datetime</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>Production end datetime</t>
+  </si>
+  <si>
+    <t>Production Line (R/S/M/T)</t>
+  </si>
+  <si>
+    <t>Production cost of item</t>
+  </si>
+  <si>
+    <t>Production ID</t>
+  </si>
+  <si>
+    <t>Product name</t>
+  </si>
+  <si>
+    <t>Product key</t>
+  </si>
+  <si>
+    <t>sls_ord_num</t>
+  </si>
+  <si>
+    <t>sls_prd_key</t>
+  </si>
+  <si>
+    <t>sls_cust_id</t>
+  </si>
+  <si>
+    <t>sls_order_dt</t>
+  </si>
+  <si>
+    <t>sls_ship_dt</t>
+  </si>
+  <si>
+    <t>sls_due_dt</t>
+  </si>
+  <si>
+    <t>sls_sales</t>
+  </si>
+  <si>
+    <t>sls_quantity</t>
+  </si>
+  <si>
+    <t>sls_price</t>
+  </si>
+  <si>
+    <t>VARCHAR(40)</t>
+  </si>
+  <si>
+    <t>Sales order number</t>
+  </si>
+  <si>
+    <t>Sales product key</t>
+  </si>
+  <si>
+    <t>Sales customer ID</t>
+  </si>
+  <si>
+    <t>Sales order date</t>
+  </si>
+  <si>
+    <t>Sales ship date</t>
+  </si>
+  <si>
+    <t>Sales due date</t>
+  </si>
+  <si>
+    <t>Total sales</t>
+  </si>
+  <si>
+    <t>Quantity sold</t>
+  </si>
+  <si>
+    <t>Price of product</t>
+  </si>
+  <si>
+    <t>Product Info</t>
+  </si>
+  <si>
+    <t>Sales Details</t>
+  </si>
+  <si>
+    <t>CID</t>
+  </si>
+  <si>
+    <t>BDATE</t>
+  </si>
+  <si>
+    <t>GEN</t>
+  </si>
+  <si>
+    <t>Gender (M, F)</t>
+  </si>
+  <si>
+    <t>Birth date</t>
+  </si>
+  <si>
+    <t>CNTRY</t>
+  </si>
+  <si>
+    <t>Country of customer</t>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+  </si>
+  <si>
+    <t>NVARCHAR(3)</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>SUBCAT</t>
+  </si>
+  <si>
+    <t>MAINTENANCE</t>
+  </si>
+  <si>
+    <t>Product ID</t>
+  </si>
+  <si>
+    <t>Sub-category</t>
+  </si>
+  <si>
+    <t>Maintenance required (Yes/No)</t>
+  </si>
+  <si>
+    <t>Customer Demographics (AZ12)</t>
+  </si>
+  <si>
+    <t>Locations (A101)</t>
+  </si>
+  <si>
+    <t>Product Cate (G1V2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,13 +370,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -154,12 +445,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -443,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -452,7 +752,7 @@
     <col min="1" max="1" width="6.25" customWidth="1"/>
     <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="20.75" customWidth="1"/>
+    <col min="4" max="4" width="27.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -485,7 +785,9 @@
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="10" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -497,8 +799,12 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
@@ -510,8 +816,12 @@
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -523,8 +833,12 @@
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -536,8 +850,12 @@
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -549,10 +867,22 @@
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" location="CUST_INFO!A1" display="Click Here" xr:uid="{5B11A977-7BE9-4020-8374-F50361CB2FBF}"/>
+    <hyperlink ref="E3" location="PRD_INFO!A1" display="Click Here" xr:uid="{3B9427D2-BFFB-4D0A-8E05-F12BA44ED39E}"/>
+    <hyperlink ref="E4" location="SALES_DETAILS!A1" display="Click Here" xr:uid="{868DF5C6-8341-4252-A116-ECA125E5F815}"/>
+    <hyperlink ref="E5" location="CUST_AZ12!A1" display="Click Here" xr:uid="{D4E2A53C-BE00-43EC-A9B1-918CC261FD6D}"/>
+    <hyperlink ref="E6" location="LOC_A101!A1" display="Click Here" xr:uid="{6342D352-ED5D-4E0F-8997-A3278AA87EB2}"/>
+    <hyperlink ref="E7" location="PX_CAT_G1V2!A1" display="Click Here" xr:uid="{ECFF314F-8BD5-4181-9745-21EF1A1A1883}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -560,15 +890,145 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B8E0CE-2897-4E26-977C-5D1E92541958}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -576,20 +1036,151 @@
     <hyperlink ref="A1" location="'Table Lists'!A1" display="Click here to go back to Table List" xr:uid="{3B3F4B4E-9168-46E9-982D-C739A72509D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B6BC69-1371-4871-8020-E5E441076DC4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -602,25 +1193,179 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D5EA61-8B45-4AED-8AA9-ECB1B48A8F8C}">
-  <dimension ref="A3:A4"/>
+  <dimension ref="A3:D17"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.75" customWidth="1"/>
+    <col min="1" max="1" width="28.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -628,35 +1373,101 @@
     <hyperlink ref="A3:A4" location="'Table Lists'!A1" display="Click here to go back to Table List" xr:uid="{D28CA776-F804-43A7-8BBE-A7CC360FC99D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77319F00-8231-489B-8776-AF0668388FAB}">
-  <dimension ref="A3:A4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.75" customWidth="1"/>
+    <col min="1" max="1" width="28.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>14</v>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3:A4" location="'Table Lists'!A1" display="Click here to go back to Table List" xr:uid="{DA589B5C-5315-4988-B95B-16C1645162C4}"/>
+    <hyperlink ref="A1" location="'Table Lists'!A1" display="Click here to go back to Table List" xr:uid="{DA589B5C-5315-4988-B95B-16C1645162C4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -664,15 +1475,76 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69D6866-BD54-41B2-A461-91C63745481A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -685,17 +1557,104 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F92A02B-E4E0-4092-A02A-1467D3B703C3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
